--- a/학습자료/단답형/객관식_영어_단어_Day07.xlsx
+++ b/학습자료/단답형/객관식_영어_단어_Day07.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -449,8 +449,8 @@
       <c r="A2" t="inlineStr">
         <is>
           <t>alleviate
-1. 보충하다, 보완하다
-2. 모방하다
+1. 피하다
+2. 보충하다, 보완하다
 3. 완화하다</t>
         </is>
       </c>
@@ -464,14 +464,14 @@
       <c r="A3" t="inlineStr">
         <is>
           <t>relieve
-1. 손상시키다
-2. 완화하다
-3. 보충하다, 보완하다</t>
+1. 완화하다
+2. 손상시키다
+3. 계산하다, 추정하다</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2, 완화하다</t>
+          <t>1, 완화하다</t>
         </is>
       </c>
     </row>
@@ -479,14 +479,14 @@
       <c r="A4" t="inlineStr">
         <is>
           <t>ease
-1. 완화하다
-2. 손상시키다
-3. 모방하다</t>
+1. 모방하다
+2. 보충하다, 보완하다
+3. 완화하다</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1, 완화하다</t>
+          <t>3, 완화하다</t>
         </is>
       </c>
     </row>
@@ -494,14 +494,14 @@
       <c r="A5" t="inlineStr">
         <is>
           <t>soothe
-1. 가속화하다, 촉진하다
-2. 완화하다
-3. 처벌하다, 벌하다</t>
+1. 완화하다
+2. 보충하다, 보완하다
+3. 계산하다, 추정하다</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2, 완화하다</t>
+          <t>1, 완화하다</t>
         </is>
       </c>
     </row>
@@ -509,14 +509,14 @@
       <c r="A6" t="inlineStr">
         <is>
           <t>moderate
-1. 계산하다, 추정하다
-2. 완화하다
-3. 가속화하다, 촉진하다</t>
+1. 완화하다
+2. 모방하다
+3. 계산하다, 추정하다</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2, 완화하다</t>
+          <t>1, 완화하다</t>
         </is>
       </c>
     </row>
@@ -525,7 +525,7 @@
         <is>
           <t>complement
 1. 계산하다, 추정하다
-2. 모방하다
+2. 손상시키다
 3. 보충하다, 보완하다</t>
         </is>
       </c>
@@ -539,14 +539,14 @@
       <c r="A8" t="inlineStr">
         <is>
           <t>supplement
-1. 보충하다, 보완하다
-2. 피하다
-3. 처벌하다, 벌하다</t>
+1. 계산하다, 추정하다
+2. 경고하다, 충고하다
+3. 보충하다, 보완하다</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1, 보충하다, 보완하다</t>
+          <t>3, 보충하다, 보완하다</t>
         </is>
       </c>
     </row>
@@ -554,14 +554,14 @@
       <c r="A9" t="inlineStr">
         <is>
           <t>replenish
-1. 손상시키다
-2. 보충하다, 보완하다
-3. 경고하다, 충고하다</t>
+1. 계산하다, 추정하다
+2. 피하다
+3. 보충하다, 보완하다</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2, 보충하다, 보완하다</t>
+          <t>3, 보충하다, 보완하다</t>
         </is>
       </c>
     </row>
@@ -569,14 +569,14 @@
       <c r="A10" t="inlineStr">
         <is>
           <t>redeem
-1. 모방하다
-2. 보충하다, 보완하다
-3. 경고하다, 충고하다</t>
+1. 보충하다, 보완하다
+2. 처벌하다, 벌하다
+3. 완화하다</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2, 보충하다, 보완하다</t>
+          <t>1, 보충하다, 보완하다</t>
         </is>
       </c>
     </row>
@@ -584,8 +584,8 @@
       <c r="A11" t="inlineStr">
         <is>
           <t>accelerate
-1. 피하다
-2. 보충하다, 보완하다
+1. 보충하다, 보완하다
+2. 손상시키다
 3. 가속화하다, 촉진하다</t>
         </is>
       </c>
@@ -600,8 +600,8 @@
         <is>
           <t>promote
 1. 가속화하다, 촉진하다
-2. 모방하다
-3. 계산하다, 추정하다</t>
+2. 경고하다, 충고하다
+3. 보충하다, 보완하다</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -614,14 +614,14 @@
       <c r="A13" t="inlineStr">
         <is>
           <t>expedite
-1. 피하다
-2. 보충하다, 보완하다
-3. 가속화하다, 촉진하다</t>
+1. 가속화하다, 촉진하다
+2. 손상시키다
+3. 강화하다</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>3, 가속화하다, 촉진하다</t>
+          <t>1, 가속화하다, 촉진하다</t>
         </is>
       </c>
     </row>
@@ -629,9 +629,9 @@
       <c r="A14" t="inlineStr">
         <is>
           <t>facilitate
-1. 경고하다, 충고하다
+1. 완화하다
 2. 가속화하다, 촉진하다
-3. 강화하다</t>
+3. 모방하다</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -644,149 +644,149 @@
       <c r="A15" t="inlineStr">
         <is>
           <t>calculate
+1. 손상시키다
+2. 계산하다, 추정하다
+3. 경고하다, 충고하다</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2, 계산하다, 추정하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>compute
+1. 손상시키다
+2. 계산하다, 추정하다
+3. 완화하다</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2, 계산하다, 추정하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>reckon
+1. 보충하다, 보완하다
+2. 가속화하다, 촉진하다
+3. 계산하다, 추정하다</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>3, 계산하다, 추정하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>estimate
+1. 완화하다
+2. 계산하다, 추정하다
+3. 모방하다</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2, 계산하다, 추정하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>gauge
+1. 손상시키다
+2. 경고하다, 충고하다
+3. 계산하다, 추정하다</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>3, 계산하다, 추정하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>shun
+1. 피하다
+2. 처벌하다, 벌하다
+3. 손상시키다</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>1, 피하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>avoid
+1. 피하다
+2. 손상시키다
+3. 완화하다</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>1, 피하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>evade
+1. 피하다
+2. 계산하다, 추정하다
+3. 보충하다, 보완하다</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>1, 피하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>avert
+1. 강화하다
+2. 가속화하다, 촉진하다
+3. 피하다</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>3, 피하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>duck
 1. 가속화하다, 촉진하다
 2. 계산하다, 추정하다
 3. 피하다</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>2, 계산하다, 추정하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>compute
-1. 경고하다, 충고하다
-2. 계산하다, 추정하다
-3. 모방하다</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>2, 계산하다, 추정하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>reckon
-1. 보충하다, 보완하다
-2. 계산하다, 추정하다
-3. 가속화하다, 촉진하다</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>2, 계산하다, 추정하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>estimate
-1. 완화하다
-2. 계산하다, 추정하다
-3. 처벌하다, 벌하다</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>2, 계산하다, 추정하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>gauge
-1. 경고하다, 충고하다
-2. 처벌하다, 벌하다
-3. 계산하다, 추정하다</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>3, 계산하다, 추정하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>shun
-1. 계산하다, 추정하다
-2. 피하다
-3. 모방하다</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>2, 피하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>avoid
-1. 피하다
-2. 가속화하다, 촉진하다
-3. 경고하다, 충고하다</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>1, 피하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>evade
-1. 보충하다, 보완하다
-2. 처벌하다, 벌하다
-3. 피하다</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
+      <c r="B24" t="inlineStr">
         <is>
           <t>3, 피하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>avert
-1. 강화하다
-2. 피하다
-3. 보충하다, 보완하다</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>2, 피하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>duck
-1. 피하다
-2. 계산하다, 추정하다
-3. 처벌하다, 벌하다</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>1, 피하다</t>
         </is>
       </c>
     </row>
@@ -794,14 +794,14 @@
       <c r="A25" t="inlineStr">
         <is>
           <t>miss
-1. 모방하다
-2. 강화하다
-3. 피하다</t>
+1. 피하다
+2. 보충하다, 보완하다
+3. 손상시키다</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>3, 피하다</t>
+          <t>1, 피하다</t>
         </is>
       </c>
     </row>
@@ -809,134 +809,134 @@
       <c r="A26" t="inlineStr">
         <is>
           <t>warn
+1. 피하다
+2. 손상시키다
+3. 경고하다, 충고하다</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>3, 경고하다, 충고하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>alert
+1. 보충하다, 보완하다
+2. 모방하다
+3. 경고하다, 충고하다</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>3, 경고하다, 충고하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>admonish
+1. 보충하다, 보완하다
+2. 모방하다
+3. 경고하다, 충고하다</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>3, 경고하다, 충고하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>forewarn
 1. 모방하다
 2. 경고하다, 충고하다
-3. 처벌하다, 벌하다</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
+3. 보충하다, 보완하다</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
         <is>
           <t>2, 경고하다, 충고하다</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>alert
-1. 손상시키다
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>exhort
+1. 모방하다
+2. 처벌하다, 벌하다
+3. 경고하다, 충고하다</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>3, 경고하다, 충고하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>punish
+1. 처벌하다, 벌하다
 2. 경고하다, 충고하다
 3. 모방하다</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>2, 경고하다, 충고하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>admonish
-1. 경고하다, 충고하다
-2. 계산하다, 추정하다
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>1, 처벌하다, 벌하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>discipline
+1. 완화하다
+2. 모방하다
 3. 처벌하다, 벌하다</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>1, 경고하다, 충고하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>forewarn
-1. 보충하다, 보완하다
-2. 경고하다, 충고하다
-3. 모방하다</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>2, 경고하다, 충고하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>exhort
-1. 경고하다, 충고하다
-2. 계산하다, 추정하다
-3. 손상시키다</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>1, 경고하다, 충고하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>punish
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>3, 처벌하다, 벌하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>penalize
+1. 손상시키다
+2. 보충하다, 보완하다
+3. 처벌하다, 벌하다</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>3, 처벌하다, 벌하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>chastise
 1. 처벌하다, 벌하다
 2. 손상시키다
-3. 완화하다</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
+3. 피하다</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
         <is>
           <t>1, 처벌하다, 벌하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>discipline
-1. 처벌하다, 벌하다
-2. 가속화하다, 촉진하다
-3. 완화하다</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>1, 처벌하다, 벌하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>penalize
-1. 모방하다
-2. 강화하다
-3. 처벌하다, 벌하다</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>3, 처벌하다, 벌하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>chastise
-1. 모방하다
-2. 처벌하다, 벌하다
-3. 강화하다</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>2, 처벌하다, 벌하다</t>
         </is>
       </c>
     </row>
@@ -946,7 +946,7 @@
           <t>castigate
 1. 처벌하다, 벌하다
 2. 계산하다, 추정하다
-3. 경고하다, 충고하다</t>
+3. 강화하다</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -959,14 +959,14 @@
       <c r="A36" t="inlineStr">
         <is>
           <t>chasten
-1. 보충하다, 보완하다
-2. 처벌하다, 벌하다
-3. 강화하다</t>
+1. 계산하다, 추정하다
+2. 보충하다, 보완하다
+3. 처벌하다, 벌하다</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2, 처벌하다, 벌하다</t>
+          <t>3, 처벌하다, 벌하다</t>
         </is>
       </c>
     </row>
@@ -974,299 +974,299 @@
       <c r="A37" t="inlineStr">
         <is>
           <t>imitate
+1. 경고하다, 충고하다
+2. 완화하다
+3. 모방하다</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>3, 모방하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>copy
+1. 모방하다
+2. 계산하다, 추정하다
+3. 강화하다</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>1, 모방하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>follow
+1. 피하다
+2. 모방하다
+3. 계산하다, 추정하다</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>2, 모방하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>emulate
+1. 보충하다, 보완하다
+2. 모방하다
+3. 가속화하다, 촉진하다</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>2, 모방하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>mimic
 1. 모방하다
 2. 강화하다
+3. 완화하다</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>1, 모방하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>impair
+1. 손상시키다
+2. 모방하다
+3. 강화하다</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>1, 손상시키다</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>damage
+1. 손상시키다
+2. 계산하다, 추정하다
 3. 처벌하다, 벌하다</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>1, 모방하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>copy
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>1, 손상시키다</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>injure
+1. 보충하다, 보완하다
+2. 모방하다
+3. 손상시키다</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>3, 손상시키다</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>spoil
+1. 계산하다, 추정하다
+2. 손상시키다
+3. 처벌하다, 벌하다</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>2, 손상시키다</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>detract
+1. 계산하다, 추정하다
+2. 손상시키다
+3. 가속화하다, 촉진하다</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>2, 손상시키다</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>deface
+1. 가속화하다, 촉진하다
+2. 손상시키다
+3. 모방하다</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>2, 손상시키다</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>disfigure
 1. 보충하다, 보완하다
 2. 손상시키다
 3. 모방하다</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>3, 모방하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>follow
-1. 강화하다
-2. 보충하다, 보완하다
-3. 모방하다</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>3, 모방하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>emulate
-1. 처벌하다, 벌하다
-2. 모방하다
-3. 계산하다, 추정하다</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>2, 모방하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>mimic
-1. 보충하다, 보완하다
-2. 모방하다
-3. 처벌하다, 벌하다</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>2, 모방하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>impair
-1. 손상시키다
-2. 가속화하다, 촉진하다
-3. 강화하다</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>1, 손상시키다</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>damage
-1. 계산하다, 추정하다
-2. 손상시키다
-3. 가속화하다, 촉진하다</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
+      <c r="B48" t="inlineStr">
         <is>
           <t>2, 손상시키다</t>
         </is>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>injure
-1. 가속화하다, 촉진하다
-2. 보충하다, 보완하다
-3. 손상시키다</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>3, 손상시키다</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>spoil
-1. 완화하다
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>derogate
+1. 경고하다, 충고하다
 2. 가속화하다, 촉진하다
 3. 손상시키다</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B49" t="inlineStr">
         <is>
           <t>3, 손상시키다</t>
         </is>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>detract
-1. 가속화하다, 촉진하다
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>traumatize
+1. 처벌하다, 벌하다
 2. 경고하다, 충고하다
 3. 손상시키다</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B50" t="inlineStr">
         <is>
           <t>3, 손상시키다</t>
         </is>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>deface
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>mar
 1. 피하다
-2. 손상시키다
-3. 모방하다</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>2, 손상시키다</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>disfigure
+2. 모방하다
+3. 손상시키다</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>3, 손상시키다</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>blemish
+1. 피하다
+2. 계산하다, 추정하다
+3. 손상시키다</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>3, 손상시키다</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>enhance
+1. 손상시키다
+2. 강화하다
+3. 완화하다</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>2, 강화하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>strengthen
+1. 손상시키다
+2. 완화하다
+3. 강화하다</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>3, 강화하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>intensify
+1. 경고하다, 충고하다
+2. 강화하다
+3. 손상시키다</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>2, 강화하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>reinforce
 1. 강화하다
 2. 모방하다
-3. 손상시키다</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>3, 손상시키다</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>derogate
-1. 손상시키다
-2. 모방하다
-3. 계산하다, 추정하다</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>1, 손상시키다</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>traumatize
-1. 보충하다, 보완하다
-2. 손상시키다
-3. 모방하다</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>2, 손상시키다</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>mar
-1. 손상시키다
-2. 계산하다, 추정하다
-3. 강화하다</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>1, 손상시키다</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>blemish
-1. 손상시키다
-2. 가속화하다, 촉진하다
-3. 경고하다, 충고하다</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>1, 손상시키다</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>enhance
-1. 처벌하다, 벌하다
-2. 완화하다
-3. 강화하다</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>3, 강화하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>strengthen
-1. 경고하다, 충고하다
-2. 강화하다
-3. 완화하다</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>2, 강화하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>intensify
-1. 가속화하다, 촉진하다
-2. 강화하다
-3. 피하다</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>2, 강화하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>reinforce
-1. 처벌하다, 벌하다
-2. 강화하다
-3. 완화하다</t>
+3. 가속화하다, 촉진하다</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2, 강화하다</t>
+          <t>1, 강화하다</t>
         </is>
       </c>
     </row>
@@ -1274,14 +1274,14 @@
       <c r="A57" t="inlineStr">
         <is>
           <t>fortify
-1. 강화하다
-2. 피하다
-3. 처벌하다, 벌하다</t>
+1. 경고하다, 충고하다
+2. 모방하다
+3. 강화하다</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>1, 강화하다</t>
+          <t>3, 강화하다</t>
         </is>
       </c>
     </row>
